--- a/sampleset.xlsx
+++ b/sampleset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SKim.CSIS.000\Documents\nk-statements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD9BDED-E186-4D49-9ED0-3C9C120DCDC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92537C1F-8C10-49DA-9101-788A0E29F835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8265" yWindow="795" windowWidth="12315" windowHeight="10485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="318">
   <si>
     <t>id</t>
   </si>
@@ -428,13 +428,7 @@
     <t>https://kcnawatch.org/newstream/1452058173-983528564/%eb%a1%9c%eb%8f%99%ec%8b%a0%eb%ac%b8-%ec%a1%b0%ec%84%a0%eb%b0%98%eb%8f%84-%eb%b9%84%ed%95%b5%ed%99%94%eb%8a%94-%ec%a1%b0%ec%84%a0%ec%9d%98-%ea%b5%b0%eb%8c%80%ec%99%80-%ec%9d%b8%eb%af%bc%ec%9d%98</t>
   </si>
   <si>
-    <t>https://kcnawatch.org/newstream/1452058669-847010120/%c2%b7%ec%a1%b0%ec%84%a0%ec%a4%91%ec%95%99%ed%86%b5%ec%8b%a0%ec%82%ac-%eb%a1%a0%ed%8f%89-%ec%9a%b0%eb%a6%ac%ec%9d%98-%ec%9e%90%ec%9c%84%ec%a0%81%ea%b6%8c%eb%a6%ac%eb%8a%94-%ec%a0%88%eb%8c%80%eb%b6%88</t>
-  </si>
-  <si>
     <t>https://kcnawatch.org/newstream/1458828413-383960666/%c2%b7%ec%a1%b0%ec%84%a0%eb%b2%95%eb%a5%a0%ea%b0%80%ec%9c%84-%ec%a1%b0%eb%af%b8%ed%8f%89%ed%99%94%ed%98%91%ec%a0%95%ec%b2%b4%ea%b2%b0%ec%9d%84-%ec%99%b8%eb%a9%b4%ed%95%98%eb%8a%94-%eb%af%b8%ea%b5%ad</t>
-  </si>
-  <si>
-    <t>https://kcnawatch.org/newstream/1648444220-622202062/%ec%a1%b0%ea%b5%ad%ed%86%b5%ec%9d%bc%ec%97%b0%ea%b5%ac%ec%9b%90-%ea%b2%bd%ec%a0%9c%ed%95%b5%eb%ac%b4%eb%a0%a5%ea%b1%b4%ec%84%a4%eb%b3%91%ec%a7%84%eb%a1%9c%ec%84%a0-3%eb%8f%90-%ec%83%81%eb%b3%b4</t>
   </si>
   <si>
     <t>https://kcnawatch.org/newstream/263605/%c2%b7%ec%9e%ac%ec%a4%91%eb%8f%99%ed%8f%ac%ec%a1%b0%ec%a7%81%eb%93%a4-%ea%b3%b5%ed%99%94%ea%b5%ad%ec%9d%98-%ed%95%b5%ed%83%84%eb%91%90%ed%8f%ad%eb%b0%9c%ec%8b%9c%ed%97%98%ec%84%b1%ea%b3%b5-%ec%b6%95</t>
@@ -1082,7 +1076,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1104,9 +1098,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1144,9 +1138,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1179,26 +1173,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1231,26 +1208,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1424,10 +1384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E158"/>
+  <dimension ref="A1:E156"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1451,7 +1411,7 @@
         <v>120</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1468,7 +1428,7 @@
         <v>121</v>
       </c>
       <c r="E2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1485,7 +1445,7 @@
         <v>121</v>
       </c>
       <c r="E3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1502,7 +1462,7 @@
         <v>121</v>
       </c>
       <c r="E4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1519,7 +1479,7 @@
         <v>122</v>
       </c>
       <c r="E5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1536,7 +1496,7 @@
         <v>122</v>
       </c>
       <c r="E6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1553,7 +1513,7 @@
         <v>121</v>
       </c>
       <c r="E7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1570,1381 +1530,1381 @@
         <v>123</v>
       </c>
       <c r="E8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>182</v>
-      </c>
-      <c r="B9" t="s">
-        <v>133</v>
+        <v>189</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="6">
-        <v>42459</v>
-      </c>
-      <c r="D9" t="s">
-        <v>123</v>
+        <v>40294</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="E9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" s="6">
-        <v>40294</v>
+        <v>43141</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>121</v>
       </c>
       <c r="E10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" s="6">
-        <v>43141</v>
+        <v>39945</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>121</v>
       </c>
       <c r="E11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>224</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>233</v>
+      </c>
+      <c r="B12" t="s">
+        <v>127</v>
       </c>
       <c r="C12" s="6">
-        <v>39945</v>
-      </c>
-      <c r="D12" s="3" t="s">
+        <v>38545</v>
+      </c>
+      <c r="D12" t="s">
         <v>121</v>
       </c>
       <c r="E12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="B13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C13" s="6">
-        <v>38545</v>
+        <v>38601</v>
       </c>
       <c r="D13" t="s">
         <v>121</v>
       </c>
       <c r="E13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>256</v>
-      </c>
-      <c r="B14" t="s">
-        <v>128</v>
+        <v>291</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C14" s="6">
-        <v>38601</v>
-      </c>
-      <c r="D14" t="s">
-        <v>121</v>
+        <v>38616</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="E14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" s="6">
-        <v>38616</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>122</v>
+        <v>38792</v>
+      </c>
+      <c r="D15" t="s">
+        <v>121</v>
       </c>
       <c r="E15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>306</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>14</v>
+        <v>328</v>
+      </c>
+      <c r="B16" t="s">
+        <v>137</v>
       </c>
       <c r="C16" s="6">
-        <v>38792</v>
+        <v>42981</v>
       </c>
       <c r="D16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="B17" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="C17" s="6">
-        <v>42981</v>
+        <v>38075</v>
       </c>
       <c r="D17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>336</v>
-      </c>
-      <c r="B18" t="s">
-        <v>125</v>
+        <v>347</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C18" s="6">
-        <v>38075</v>
-      </c>
-      <c r="D18" t="s">
+        <v>42993</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>121</v>
       </c>
       <c r="E18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C19" s="6">
-        <v>42993</v>
-      </c>
-      <c r="D19" s="3" t="s">
+        <v>39846</v>
+      </c>
+      <c r="D19" t="s">
         <v>121</v>
       </c>
       <c r="E19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>383</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>16</v>
+        <v>391</v>
+      </c>
+      <c r="B20" t="s">
+        <v>143</v>
       </c>
       <c r="C20" s="6">
-        <v>39846</v>
+        <v>44844</v>
       </c>
       <c r="D20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>391</v>
-      </c>
-      <c r="B21" t="s">
-        <v>145</v>
+        <v>408</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C21" s="6">
-        <v>44844</v>
+        <v>38994</v>
       </c>
       <c r="D21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>408</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>17</v>
+        <v>447</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="C22" s="6">
-        <v>38994</v>
+        <v>37897</v>
       </c>
       <c r="D22" t="s">
         <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>447</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>124</v>
+        <v>485</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C23" s="6">
-        <v>37897</v>
-      </c>
-      <c r="D23" t="s">
+        <v>41391</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>121</v>
       </c>
       <c r="E23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>485</v>
+        <v>578</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C24" s="6">
-        <v>41391</v>
+        <v>41170</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>121</v>
       </c>
       <c r="E24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>578</v>
+        <v>622</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C25" s="6">
-        <v>41170</v>
+        <v>37581</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>121</v>
       </c>
       <c r="E25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C26" s="6">
-        <v>37581</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>121</v>
+        <v>37632</v>
+      </c>
+      <c r="D26" t="s">
+        <v>123</v>
       </c>
       <c r="E26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>624</v>
+        <v>638</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C27" s="6">
-        <v>37632</v>
-      </c>
-      <c r="D27" t="s">
+        <v>42675</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>123</v>
       </c>
       <c r="E27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>638</v>
+        <v>673</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C28" s="6">
-        <v>42675</v>
+        <v>37383</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>673</v>
+        <v>730</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C29" s="6">
-        <v>37383</v>
+        <v>37636</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>122</v>
       </c>
       <c r="E29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>730</v>
+        <v>772</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C30" s="6">
-        <v>37636</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>122</v>
+        <v>37868</v>
+      </c>
+      <c r="D30" t="s">
+        <v>121</v>
       </c>
       <c r="E30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>772</v>
+        <v>793</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C31" s="6">
-        <v>37868</v>
+        <v>37646</v>
       </c>
       <c r="D31" t="s">
         <v>121</v>
       </c>
       <c r="E31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>793</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>26</v>
+        <v>801</v>
+      </c>
+      <c r="B32" t="s">
+        <v>138</v>
       </c>
       <c r="C32" s="6">
-        <v>37646</v>
+        <v>43041</v>
       </c>
       <c r="D32" t="s">
         <v>121</v>
       </c>
       <c r="E32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>801</v>
+        <v>816</v>
       </c>
       <c r="B33" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C33" s="6">
-        <v>43041</v>
+        <v>42633</v>
       </c>
       <c r="D33" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>816</v>
-      </c>
-      <c r="B34" t="s">
-        <v>134</v>
+        <v>818</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="C34" s="6">
-        <v>42633</v>
-      </c>
-      <c r="D34" t="s">
-        <v>123</v>
+        <v>42465</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="E34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>818</v>
+        <v>857</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C35" s="6">
-        <v>42465</v>
-      </c>
-      <c r="D35" s="3" t="s">
+        <v>42856</v>
+      </c>
+      <c r="D35" t="s">
         <v>122</v>
       </c>
       <c r="E35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>857</v>
+        <v>882</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C36" s="6">
-        <v>42856</v>
-      </c>
-      <c r="D36" t="s">
-        <v>122</v>
+        <v>42053</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="E36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>882</v>
+        <v>895</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C37" s="6">
-        <v>42053</v>
+        <v>37720</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>121</v>
       </c>
       <c r="E37" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>895</v>
+        <v>932</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C38" s="6">
-        <v>37720</v>
+        <v>41375</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>932</v>
+        <v>993</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C39" s="6">
-        <v>41375</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>122</v>
+        <v>42800</v>
+      </c>
+      <c r="D39" t="s">
+        <v>121</v>
       </c>
       <c r="E39" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>993</v>
+        <v>1031</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C40" s="6">
-        <v>42800</v>
+        <v>42641</v>
       </c>
       <c r="D40" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E40" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>1031</v>
+        <v>1036</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C41" s="6">
-        <v>42641</v>
-      </c>
-      <c r="D41" t="s">
+        <v>42496</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>122</v>
       </c>
       <c r="E41" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>1036</v>
+        <v>1061</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42" s="6">
-        <v>42496</v>
+        <v>38201</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>1061</v>
+        <v>1123</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C43" s="6">
-        <v>38201</v>
+        <v>41334</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E43" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>1123</v>
+        <v>1129</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C44" s="6">
-        <v>41334</v>
+        <v>41321</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>122</v>
       </c>
       <c r="E44" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>1129</v>
+        <v>1158</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C45" s="6">
-        <v>41321</v>
-      </c>
-      <c r="D45" s="3" t="s">
+        <v>41557</v>
+      </c>
+      <c r="D45" t="s">
         <v>122</v>
       </c>
       <c r="E45" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>1158</v>
+        <v>1192</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C46" s="6">
-        <v>41557</v>
+        <v>43088</v>
       </c>
       <c r="D46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E46" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>1192</v>
+        <v>1336</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C47" s="6">
-        <v>43088</v>
+        <v>42893</v>
       </c>
       <c r="D47" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E47" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>1336</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>40</v>
+        <v>1473</v>
+      </c>
+      <c r="B48" t="s">
+        <v>142</v>
       </c>
       <c r="C48" s="6">
-        <v>42893</v>
+        <v>44656</v>
       </c>
       <c r="D48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>1473</v>
-      </c>
-      <c r="B49" t="s">
-        <v>144</v>
+        <v>1483</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="C49" s="6">
-        <v>44656</v>
+        <v>42923</v>
       </c>
       <c r="D49" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E49" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>1483</v>
+        <v>1637</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C50" s="6">
-        <v>42923</v>
-      </c>
-      <c r="D50" t="s">
-        <v>123</v>
+        <v>43018</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="E50" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>1637</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>42</v>
+        <v>1868</v>
+      </c>
+      <c r="B51" t="s">
+        <v>134</v>
       </c>
       <c r="C51" s="6">
-        <v>43018</v>
-      </c>
-      <c r="D51" s="3" t="s">
+        <v>42825</v>
+      </c>
+      <c r="D51" t="s">
         <v>121</v>
       </c>
       <c r="E51" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>1868</v>
-      </c>
-      <c r="B52" t="s">
-        <v>136</v>
+        <v>1903</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C52" s="6">
-        <v>42825</v>
+        <v>36189</v>
       </c>
       <c r="D52" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E52" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>1903</v>
+        <v>1938</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C53" s="6">
-        <v>36189</v>
-      </c>
-      <c r="D53" t="s">
-        <v>122</v>
+        <v>43004</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="E53" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>1938</v>
+        <v>1944</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C54" s="6">
-        <v>43004</v>
+        <v>40633</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E54" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>1944</v>
+        <v>1947</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C55" s="6">
-        <v>40633</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>121</v>
+        <v>42645</v>
+      </c>
+      <c r="D55" t="s">
+        <v>122</v>
       </c>
       <c r="E55" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>1947</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>46</v>
+        <v>2130</v>
+      </c>
+      <c r="B56" t="s">
+        <v>141</v>
       </c>
       <c r="C56" s="6">
-        <v>42645</v>
+        <v>43098</v>
       </c>
       <c r="D56" t="s">
         <v>122</v>
       </c>
       <c r="E56" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>2130</v>
-      </c>
-      <c r="B57" t="s">
-        <v>143</v>
+        <v>2133</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="C57" s="6">
-        <v>43098</v>
+        <v>40894</v>
       </c>
       <c r="D57" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E57" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>2133</v>
+        <v>2144</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C58" s="6">
-        <v>40894</v>
+        <v>42651</v>
       </c>
       <c r="D58" t="s">
         <v>123</v>
       </c>
       <c r="E58" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>2144</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>48</v>
+        <v>2145</v>
+      </c>
+      <c r="B59" t="s">
+        <v>131</v>
       </c>
       <c r="C59" s="6">
-        <v>42651</v>
+        <v>42383</v>
       </c>
       <c r="D59" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E59" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>2145</v>
+        <v>2170</v>
       </c>
       <c r="B60" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C60" s="6">
-        <v>42383</v>
+        <v>43081</v>
       </c>
       <c r="D60" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E60" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>2170</v>
+        <v>2216</v>
       </c>
       <c r="B61" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="C61" s="6">
-        <v>43081</v>
+        <v>38117</v>
       </c>
       <c r="D61" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E61" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>2216</v>
-      </c>
-      <c r="B62" t="s">
-        <v>126</v>
+        <v>2223</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="C62" s="6">
-        <v>38117</v>
-      </c>
-      <c r="D62" t="s">
+        <v>41386</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>121</v>
       </c>
       <c r="E62" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>2223</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>49</v>
+        <v>2265</v>
+      </c>
+      <c r="B63" t="s">
+        <v>135</v>
       </c>
       <c r="C63" s="6">
-        <v>41386</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>121</v>
+        <v>42864</v>
+      </c>
+      <c r="D63" t="s">
+        <v>123</v>
       </c>
       <c r="E63" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>2265</v>
-      </c>
-      <c r="B64" t="s">
-        <v>137</v>
+        <v>2266</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="C64" s="6">
-        <v>42864</v>
-      </c>
-      <c r="D64" t="s">
+        <v>41382</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>123</v>
       </c>
       <c r="E64" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>2266</v>
+        <v>2271</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C65" s="6">
-        <v>41382</v>
+        <v>42629</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>2271</v>
+        <v>2277</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C66" s="6">
-        <v>42629</v>
+        <v>38651</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>121</v>
       </c>
       <c r="E66" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>2277</v>
+        <v>2300</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C67" s="6">
-        <v>38651</v>
+        <v>37974</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E67" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>2300</v>
+        <v>2305</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C68" s="6">
-        <v>37974</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>123</v>
+        <v>43003</v>
+      </c>
+      <c r="D68" t="s">
+        <v>122</v>
       </c>
       <c r="E68" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>2305</v>
+        <v>2326</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C69" s="6">
-        <v>43003</v>
-      </c>
-      <c r="D69" t="s">
-        <v>122</v>
+        <v>37753</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="E69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>2326</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>55</v>
+        <v>2333</v>
+      </c>
+      <c r="B70" t="s">
+        <v>140</v>
       </c>
       <c r="C70" s="6">
-        <v>37753</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>121</v>
+        <v>43082</v>
+      </c>
+      <c r="D70" t="s">
+        <v>123</v>
       </c>
       <c r="E70" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>2333</v>
-      </c>
-      <c r="B71" t="s">
-        <v>142</v>
+        <v>2350</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="C71" s="6">
-        <v>43082</v>
-      </c>
-      <c r="D71" t="s">
-        <v>123</v>
+        <v>41552</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="E71" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>2350</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>56</v>
+        <v>2351</v>
+      </c>
+      <c r="B72" t="s">
+        <v>130</v>
       </c>
       <c r="C72" s="6">
-        <v>41552</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>122</v>
+        <v>41661</v>
+      </c>
+      <c r="D72" t="s">
+        <v>121</v>
       </c>
       <c r="E72" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>2351</v>
-      </c>
-      <c r="B73" t="s">
-        <v>130</v>
+        <v>2501</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="C73" s="6">
-        <v>41661</v>
+        <v>42607</v>
       </c>
       <c r="D73" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E73" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>2501</v>
+        <v>2506</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C74" s="6">
-        <v>42607</v>
-      </c>
-      <c r="D74" t="s">
-        <v>123</v>
+        <v>37603</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="E74" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>2506</v>
+        <v>2530</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C75" s="6">
-        <v>37603</v>
+        <v>41364</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>122</v>
       </c>
       <c r="E75" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>2530</v>
+        <v>2642</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C76" s="6">
-        <v>41364</v>
+        <v>39942</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E76" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>2642</v>
+        <v>2660</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C77" s="6">
-        <v>39942</v>
+        <v>43106</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E77" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>2660</v>
+        <v>2689</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C78" s="6">
-        <v>43106</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>123</v>
+        <v>43038</v>
+      </c>
+      <c r="D78" t="s">
+        <v>121</v>
       </c>
       <c r="E78" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>2689</v>
+        <v>2738</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C79" s="6">
-        <v>43038</v>
+        <v>42494</v>
       </c>
       <c r="D79" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E79" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>2738</v>
+        <v>2774</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C80" s="6">
-        <v>42494</v>
-      </c>
-      <c r="D80" t="s">
-        <v>122</v>
+        <v>37904</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="E80" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>2774</v>
+        <v>2793</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C81" s="6">
-        <v>37904</v>
+        <v>42576</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E81" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>2793</v>
+        <v>2801</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C82" s="6">
-        <v>42576</v>
+        <v>36318</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>123</v>
       </c>
       <c r="E82" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>2801</v>
+        <v>2809</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C83" s="6">
-        <v>36318</v>
+        <v>37573</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>123</v>
       </c>
       <c r="E83" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>2809</v>
+        <v>2822</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C84" s="6">
-        <v>37573</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>123</v>
+        <v>43125</v>
+      </c>
+      <c r="D84" t="s">
+        <v>122</v>
       </c>
       <c r="E84" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>2822</v>
+        <v>2844</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C85" s="6">
-        <v>43125</v>
-      </c>
-      <c r="D85" t="s">
-        <v>122</v>
+        <v>40310</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="E85" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>2844</v>
+        <v>2851</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C86" s="6">
-        <v>40310</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>123</v>
+        <v>40353</v>
+      </c>
+      <c r="D86" t="s">
+        <v>122</v>
       </c>
       <c r="E86" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>2851</v>
+        <v>2901</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C87" s="6">
-        <v>40353</v>
-      </c>
-      <c r="D87" t="s">
-        <v>122</v>
+        <v>41842</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="E87" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>2901</v>
+        <v>2904</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C88" s="6">
-        <v>41842</v>
-      </c>
-      <c r="D88" s="3" t="s">
+        <v>39038</v>
+      </c>
+      <c r="D88" t="s">
         <v>121</v>
       </c>
       <c r="E88" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>2901</v>
-      </c>
-      <c r="B89" t="s">
-        <v>131</v>
+        <v>2912</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="C89" s="6">
-        <v>41842</v>
-      </c>
-      <c r="D89" t="s">
-        <v>121</v>
+        <v>38467</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="E89" t="s">
         <v>249</v>
@@ -2952,16 +2912,16 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>2904</v>
+        <v>2951</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C90" s="6">
-        <v>39038</v>
-      </c>
-      <c r="D90" t="s">
-        <v>121</v>
+        <v>42961</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="E90" t="s">
         <v>250</v>
@@ -2969,16 +2929,16 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>2912</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>73</v>
+        <v>2982</v>
+      </c>
+      <c r="B91" t="s">
+        <v>133</v>
       </c>
       <c r="C91" s="6">
-        <v>38467</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>123</v>
+        <v>42807</v>
+      </c>
+      <c r="D91" t="s">
+        <v>122</v>
       </c>
       <c r="E91" t="s">
         <v>251</v>
@@ -2986,16 +2946,16 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>2951</v>
+        <v>2983</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C92" s="6">
-        <v>42961</v>
+        <v>42770</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E92" t="s">
         <v>252</v>
@@ -3003,16 +2963,16 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>2982</v>
-      </c>
-      <c r="B93" t="s">
-        <v>135</v>
+        <v>2984</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="C93" s="6">
-        <v>42807</v>
+        <v>43054</v>
       </c>
       <c r="D93" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E93" t="s">
         <v>253</v>
@@ -3020,16 +2980,16 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>2983</v>
+        <v>2989</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C94" s="6">
-        <v>42770</v>
+        <v>42889</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E94" t="s">
         <v>254</v>
@@ -3037,16 +2997,16 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>2984</v>
+        <v>3004</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C95" s="6">
-        <v>43054</v>
+        <v>40687</v>
       </c>
       <c r="D95" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E95" t="s">
         <v>255</v>
@@ -3054,16 +3014,16 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>2989</v>
+        <v>3026</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C96" s="6">
-        <v>42889</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>123</v>
+        <v>41319</v>
+      </c>
+      <c r="D96" t="s">
+        <v>121</v>
       </c>
       <c r="E96" t="s">
         <v>256</v>
@@ -3071,15 +3031,15 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>3004</v>
+        <v>3028</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C97" s="6">
-        <v>40687</v>
-      </c>
-      <c r="D97" t="s">
+        <v>41367</v>
+      </c>
+      <c r="D97" s="3" t="s">
         <v>121</v>
       </c>
       <c r="E97" t="s">
@@ -3088,15 +3048,15 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>3026</v>
+        <v>3071</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C98" s="6">
-        <v>41319</v>
-      </c>
-      <c r="D98" t="s">
+        <v>41728</v>
+      </c>
+      <c r="D98" s="3" t="s">
         <v>121</v>
       </c>
       <c r="E98" t="s">
@@ -3105,15 +3065,15 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>3028</v>
+        <v>3117</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C99" s="6">
-        <v>41367</v>
-      </c>
-      <c r="D99" s="3" t="s">
+        <v>37994</v>
+      </c>
+      <c r="D99" t="s">
         <v>121</v>
       </c>
       <c r="E99" t="s">
@@ -3122,16 +3082,16 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>3071</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>81</v>
+        <v>3129</v>
+      </c>
+      <c r="B100" t="s">
+        <v>144</v>
       </c>
       <c r="C100" s="6">
-        <v>41728</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>121</v>
+        <v>44917</v>
+      </c>
+      <c r="D100" t="s">
+        <v>122</v>
       </c>
       <c r="E100" t="s">
         <v>260</v>
@@ -3139,16 +3099,16 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>3117</v>
+        <v>3148</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C101" s="6">
-        <v>37994</v>
+        <v>40929</v>
       </c>
       <c r="D101" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E101" t="s">
         <v>261</v>
@@ -3156,13 +3116,13 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>3129</v>
-      </c>
-      <c r="B102" t="s">
-        <v>146</v>
+        <v>3203</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="C102" s="6">
-        <v>44917</v>
+        <v>42846</v>
       </c>
       <c r="D102" t="s">
         <v>122</v>
@@ -3173,13 +3133,13 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>3148</v>
+        <v>3206</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C103" s="6">
-        <v>40929</v>
+        <v>42743</v>
       </c>
       <c r="D103" t="s">
         <v>123</v>
@@ -3190,16 +3150,16 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>3203</v>
+        <v>3216</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C104" s="6">
-        <v>42846</v>
-      </c>
-      <c r="D104" t="s">
-        <v>122</v>
+        <v>41115</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="E104" t="s">
         <v>264</v>
@@ -3207,16 +3167,16 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>3206</v>
+        <v>3220</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C105" s="6">
-        <v>42743</v>
-      </c>
-      <c r="D105" t="s">
-        <v>123</v>
+        <v>41401</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="E105" t="s">
         <v>265</v>
@@ -3224,13 +3184,13 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
-        <v>3216</v>
+        <v>3236</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C106" s="6">
-        <v>41115</v>
+        <v>42180</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>121</v>
@@ -3241,16 +3201,16 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107">
-        <v>3220</v>
+        <v>3248</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C107" s="6">
-        <v>41401</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>122</v>
+        <v>42470</v>
+      </c>
+      <c r="D107" t="s">
+        <v>121</v>
       </c>
       <c r="E107" t="s">
         <v>267</v>
@@ -3258,13 +3218,13 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108">
-        <v>3236</v>
+        <v>3316</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C108" s="6">
-        <v>42180</v>
+        <v>37776</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>121</v>
@@ -3275,13 +3235,13 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109">
-        <v>3248</v>
+        <v>3342</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C109" s="6">
-        <v>42470</v>
+        <v>38426</v>
       </c>
       <c r="D109" t="s">
         <v>121</v>
@@ -3292,16 +3252,16 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110">
-        <v>3316</v>
+        <v>3352</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C110" s="6">
-        <v>37776</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>121</v>
+        <v>42996</v>
+      </c>
+      <c r="D110" t="s">
+        <v>122</v>
       </c>
       <c r="E110" t="s">
         <v>270</v>
@@ -3309,16 +3269,16 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111">
-        <v>3342</v>
+        <v>3356</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C111" s="6">
-        <v>38426</v>
-      </c>
-      <c r="D111" t="s">
-        <v>121</v>
+        <v>42982</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="E111" t="s">
         <v>271</v>
@@ -3326,13 +3286,13 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112">
-        <v>3352</v>
+        <v>3458</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C112" s="6">
-        <v>42996</v>
+        <v>40702</v>
       </c>
       <c r="D112" t="s">
         <v>122</v>
@@ -3343,16 +3303,16 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113">
-        <v>3356</v>
+        <v>3494</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C113" s="6">
-        <v>42982</v>
+        <v>41332</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E113" t="s">
         <v>273</v>
@@ -3360,16 +3320,16 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114">
-        <v>3458</v>
+        <v>3511</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C114" s="6">
-        <v>40702</v>
-      </c>
-      <c r="D114" t="s">
-        <v>122</v>
+        <v>41459</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="E114" t="s">
         <v>274</v>
@@ -3377,16 +3337,16 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115">
-        <v>3494</v>
+        <v>3554</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C115" s="6">
-        <v>41332</v>
+        <v>42011</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E115" t="s">
         <v>275</v>
@@ -3394,16 +3354,16 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116">
-        <v>3511</v>
+        <v>3622</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C116" s="6">
-        <v>41459</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>123</v>
+        <v>39963</v>
+      </c>
+      <c r="D116" t="s">
+        <v>122</v>
       </c>
       <c r="E116" t="s">
         <v>276</v>
@@ -3411,13 +3371,13 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117">
-        <v>3554</v>
+        <v>3637</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C117" s="6">
-        <v>42011</v>
+        <v>40406</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>122</v>
@@ -3428,16 +3388,16 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118">
-        <v>3622</v>
+        <v>3684</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C118" s="6">
-        <v>39963</v>
-      </c>
-      <c r="D118" t="s">
-        <v>122</v>
+        <v>42245</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="E118" t="s">
         <v>278</v>
@@ -3445,16 +3405,16 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119">
-        <v>3637</v>
+        <v>3696</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C119" s="6">
-        <v>40406</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>122</v>
+        <v>42986</v>
+      </c>
+      <c r="D119" t="s">
+        <v>123</v>
       </c>
       <c r="E119" t="s">
         <v>279</v>
@@ -3462,15 +3422,15 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120">
-        <v>3684</v>
+        <v>3706</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C120" s="6">
-        <v>42245</v>
-      </c>
-      <c r="D120" s="3" t="s">
+        <v>42610</v>
+      </c>
+      <c r="D120" t="s">
         <v>123</v>
       </c>
       <c r="E120" t="s">
@@ -3479,13 +3439,13 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121">
-        <v>3696</v>
+        <v>3771</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C121" s="6">
-        <v>42986</v>
+        <v>43137</v>
       </c>
       <c r="D121" t="s">
         <v>123</v>
@@ -3496,13 +3456,13 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122">
-        <v>3706</v>
+        <v>3778</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C122" s="6">
-        <v>42610</v>
+        <v>42806</v>
       </c>
       <c r="D122" t="s">
         <v>123</v>
@@ -3513,15 +3473,15 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123">
-        <v>3771</v>
+        <v>3796</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C123" s="6">
-        <v>43137</v>
-      </c>
-      <c r="D123" t="s">
+        <v>43036</v>
+      </c>
+      <c r="D123" s="3" t="s">
         <v>123</v>
       </c>
       <c r="E123" t="s">
@@ -3530,16 +3490,16 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124">
-        <v>3778</v>
+        <v>3822</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C124" s="6">
-        <v>42806</v>
-      </c>
-      <c r="D124" t="s">
-        <v>123</v>
+        <v>42852</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="E124" t="s">
         <v>284</v>
@@ -3547,16 +3507,16 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125">
-        <v>3796</v>
+        <v>3870</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C125" s="6">
-        <v>43036</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>123</v>
+        <v>41405</v>
+      </c>
+      <c r="D125" t="s">
+        <v>122</v>
       </c>
       <c r="E125" t="s">
         <v>285</v>
@@ -3564,16 +3524,16 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126">
-        <v>3822</v>
+        <v>3885</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C126" s="6">
-        <v>42852</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>121</v>
+        <v>41326</v>
+      </c>
+      <c r="D126" t="s">
+        <v>123</v>
       </c>
       <c r="E126" t="s">
         <v>286</v>
@@ -3581,16 +3541,16 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127">
-        <v>3870</v>
+        <v>3890</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C127" s="6">
-        <v>41405</v>
-      </c>
-      <c r="D127" t="s">
-        <v>122</v>
+        <v>41317</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="E127" t="s">
         <v>287</v>
@@ -3598,15 +3558,15 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128">
-        <v>3885</v>
+        <v>3891</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C128" s="6">
-        <v>41326</v>
-      </c>
-      <c r="D128" t="s">
+        <v>41299</v>
+      </c>
+      <c r="D128" s="3" t="s">
         <v>123</v>
       </c>
       <c r="E128" t="s">
@@ -3615,13 +3575,13 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129">
-        <v>3890</v>
+        <v>3893</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C129" s="6">
-        <v>41317</v>
+        <v>41363</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>123</v>
@@ -3632,16 +3592,16 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130">
-        <v>3891</v>
+        <v>3965</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C130" s="6">
-        <v>41299</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>123</v>
+        <v>42546</v>
+      </c>
+      <c r="D130" t="s">
+        <v>121</v>
       </c>
       <c r="E130" t="s">
         <v>290</v>
@@ -3649,13 +3609,13 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131">
-        <v>3893</v>
+        <v>4025</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C131" s="6">
-        <v>41363</v>
+        <v>39139</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>123</v>
@@ -3666,13 +3626,13 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132">
-        <v>3965</v>
+        <v>4034</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C132" s="6">
-        <v>42546</v>
+        <v>38460</v>
       </c>
       <c r="D132" t="s">
         <v>121</v>
@@ -3683,16 +3643,16 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133">
-        <v>4025</v>
+        <v>4070</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C133" s="6">
-        <v>39139</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>123</v>
+        <v>39958</v>
+      </c>
+      <c r="D133" t="s">
+        <v>121</v>
       </c>
       <c r="E133" t="s">
         <v>293</v>
@@ -3700,16 +3660,16 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134">
-        <v>4034</v>
+        <v>4734</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C134" s="6">
-        <v>38460</v>
-      </c>
-      <c r="D134" t="s">
-        <v>121</v>
+        <v>39113</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="E134" t="s">
         <v>294</v>
@@ -3717,13 +3677,13 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135">
-        <v>4070</v>
+        <v>4744</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C135" s="6">
-        <v>39958</v>
+        <v>39501</v>
       </c>
       <c r="D135" t="s">
         <v>121</v>
@@ -3734,16 +3694,16 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136">
-        <v>4734</v>
+        <v>7204</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C136" s="6">
-        <v>39113</v>
+        <v>40210</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E136" t="s">
         <v>296</v>
@@ -3751,16 +3711,16 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137">
-        <v>4744</v>
+        <v>8064</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C137" s="6">
-        <v>39501</v>
-      </c>
-      <c r="D137" t="s">
-        <v>121</v>
+        <v>39119</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="E137" t="s">
         <v>297</v>
@@ -3768,16 +3728,16 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138">
-        <v>7204</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>118</v>
+        <v>13099</v>
+      </c>
+      <c r="B138" t="s">
+        <v>129</v>
       </c>
       <c r="C138" s="6">
-        <v>40210</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>121</v>
+        <v>39197</v>
+      </c>
+      <c r="D138" t="s">
+        <v>123</v>
       </c>
       <c r="E138" t="s">
         <v>298</v>
@@ -3785,16 +3745,16 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139">
-        <v>8064</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>119</v>
+        <v>14988</v>
+      </c>
+      <c r="B139" t="s">
+        <v>145</v>
       </c>
       <c r="C139" s="6">
-        <v>39119</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>123</v>
+        <v>45009</v>
+      </c>
+      <c r="D139" t="s">
+        <v>122</v>
       </c>
       <c r="E139" t="s">
         <v>299</v>
@@ -3802,16 +3762,16 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140">
-        <v>13099</v>
+        <v>15014</v>
       </c>
       <c r="B140" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C140" s="6">
-        <v>39197</v>
+        <v>42955</v>
       </c>
       <c r="D140" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E140" t="s">
         <v>300</v>
@@ -3819,13 +3779,13 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141">
-        <v>14988</v>
+        <v>15015</v>
       </c>
       <c r="B141" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C141" s="6">
-        <v>45009</v>
+        <v>45013</v>
       </c>
       <c r="D141" t="s">
         <v>122</v>
@@ -3836,16 +3796,16 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142">
-        <v>15014</v>
+        <v>15016</v>
       </c>
       <c r="B142" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C142" s="6">
-        <v>42955</v>
+        <v>45018</v>
       </c>
       <c r="D142" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E142" t="s">
         <v>302</v>
@@ -3853,16 +3813,16 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143">
-        <v>15015</v>
+        <v>15017</v>
       </c>
       <c r="B143" t="s">
         <v>148</v>
       </c>
       <c r="C143" s="6">
-        <v>45013</v>
+        <v>45019</v>
       </c>
       <c r="D143" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E143" t="s">
         <v>303</v>
@@ -3870,13 +3830,13 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144">
-        <v>15016</v>
+        <v>15018</v>
       </c>
       <c r="B144" t="s">
         <v>149</v>
       </c>
       <c r="C144" s="6">
-        <v>45018</v>
+        <v>45022</v>
       </c>
       <c r="D144" t="s">
         <v>122</v>
@@ -3887,16 +3847,16 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145">
-        <v>15017</v>
+        <v>15019</v>
       </c>
       <c r="B145" t="s">
         <v>150</v>
       </c>
       <c r="C145" s="6">
-        <v>45019</v>
+        <v>45023</v>
       </c>
       <c r="D145" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E145" t="s">
         <v>305</v>
@@ -3904,13 +3864,13 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146">
-        <v>15018</v>
+        <v>15020</v>
       </c>
       <c r="B146" t="s">
         <v>151</v>
       </c>
       <c r="C146" s="6">
-        <v>45022</v>
+        <v>45023</v>
       </c>
       <c r="D146" t="s">
         <v>122</v>
@@ -3921,13 +3881,13 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147">
-        <v>15019</v>
+        <v>15021</v>
       </c>
       <c r="B147" t="s">
         <v>152</v>
       </c>
       <c r="C147" s="6">
-        <v>45023</v>
+        <v>45024</v>
       </c>
       <c r="D147" t="s">
         <v>121</v>
@@ -3938,16 +3898,16 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148">
-        <v>15020</v>
+        <v>15022</v>
       </c>
       <c r="B148" t="s">
         <v>153</v>
       </c>
       <c r="C148" s="6">
-        <v>45023</v>
+        <v>45030</v>
       </c>
       <c r="D148" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E148" t="s">
         <v>308</v>
@@ -3955,16 +3915,16 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149">
-        <v>15021</v>
+        <v>15023</v>
       </c>
       <c r="B149" t="s">
         <v>154</v>
       </c>
       <c r="C149" s="6">
-        <v>45024</v>
+        <v>45030</v>
       </c>
       <c r="D149" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E149" t="s">
         <v>309</v>
@@ -3972,16 +3932,16 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150">
-        <v>15022</v>
+        <v>15024</v>
       </c>
       <c r="B150" t="s">
         <v>155</v>
       </c>
       <c r="C150" s="6">
-        <v>45030</v>
+        <v>45033</v>
       </c>
       <c r="D150" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E150" t="s">
         <v>310</v>
@@ -3989,16 +3949,16 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151">
-        <v>15023</v>
+        <v>15025</v>
       </c>
       <c r="B151" t="s">
         <v>156</v>
       </c>
       <c r="C151" s="6">
-        <v>45030</v>
+        <v>45035</v>
       </c>
       <c r="D151" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E151" t="s">
         <v>311</v>
@@ -4006,16 +3966,16 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152">
-        <v>15024</v>
+        <v>15026</v>
       </c>
       <c r="B152" t="s">
         <v>157</v>
       </c>
       <c r="C152" s="6">
-        <v>45033</v>
+        <v>45037</v>
       </c>
       <c r="D152" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E152" t="s">
         <v>312</v>
@@ -4023,13 +3983,13 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153">
-        <v>15025</v>
+        <v>15027</v>
       </c>
       <c r="B153" t="s">
         <v>158</v>
       </c>
       <c r="C153" s="6">
-        <v>45035</v>
+        <v>45046</v>
       </c>
       <c r="D153" t="s">
         <v>121</v>
@@ -4040,16 +4000,16 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154">
-        <v>15026</v>
+        <v>15028</v>
       </c>
       <c r="B154" t="s">
         <v>159</v>
       </c>
       <c r="C154" s="6">
-        <v>45037</v>
+        <v>45047</v>
       </c>
       <c r="D154" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E154" t="s">
         <v>314</v>
@@ -4057,16 +4017,16 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155">
-        <v>15027</v>
+        <v>15029</v>
       </c>
       <c r="B155" t="s">
         <v>160</v>
       </c>
       <c r="C155" s="6">
-        <v>45046</v>
+        <v>45057</v>
       </c>
       <c r="D155" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E155" t="s">
         <v>315</v>
@@ -4074,13 +4034,13 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156">
-        <v>15028</v>
+        <v>15030</v>
       </c>
       <c r="B156" t="s">
         <v>161</v>
       </c>
       <c r="C156" s="6">
-        <v>45047</v>
+        <v>45065</v>
       </c>
       <c r="D156" t="s">
         <v>121</v>
@@ -4089,43 +4049,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
-      <c r="A157">
-        <v>15029</v>
-      </c>
-      <c r="B157" t="s">
-        <v>162</v>
-      </c>
-      <c r="C157" s="6">
-        <v>45057</v>
-      </c>
-      <c r="D157" t="s">
-        <v>123</v>
-      </c>
-      <c r="E157" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
-      <c r="A158">
-        <v>15030</v>
-      </c>
-      <c r="B158" t="s">
-        <v>163</v>
-      </c>
-      <c r="C158" s="6">
-        <v>45065</v>
-      </c>
-      <c r="D158" t="s">
-        <v>121</v>
-      </c>
-      <c r="E158" t="s">
-        <v>318</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D158">
-    <sortCondition ref="A2:A158"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D156">
+    <sortCondition ref="A2:A156"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -4135,117 +4061,117 @@
     <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B15" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B19" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B20" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B22" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B24" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="B26" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="B27" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="B28" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="B29" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="B30" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="B31" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="B32" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="B35" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="B36" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="B37" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="B38" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="B39" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="B40" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="B41" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="B42" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="B43" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="B44" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="B45" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="B46" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="B47" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="B48" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="B50" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="B51" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="B53" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="B54" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="B55" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="B56" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="B58" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="B59" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="B63" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="B65" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="B66" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="B67" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="B68" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="B69" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="B70" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="B72" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="B74" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="B75" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="B76" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="B77" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="B78" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="B79" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="B80" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="B81" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="B82" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="B83" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="B84" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="B85" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="B86" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="B87" r:id="rId67" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="B88" r:id="rId68" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="B90" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="B91" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="B92" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="B94" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="B95" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="B96" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="B97" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="B98" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="B99" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="B100" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="B101" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="B103" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="B104" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="B105" r:id="rId82" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="B106" r:id="rId83" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="B107" r:id="rId84" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="B108" r:id="rId85" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="B109" r:id="rId86" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="B110" r:id="rId87" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="B111" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="B112" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="B113" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="B114" r:id="rId91" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="B115" r:id="rId92" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="B116" r:id="rId93" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="B117" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="B118" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="B119" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="B120" r:id="rId97" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="B121" r:id="rId98" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="B122" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="B123" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="B124" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="B125" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="B126" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="B127" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="B128" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="B129" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="B130" r:id="rId107" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="B131" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="B132" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="B133" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="B134" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="B135" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="B136" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="B137" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="B138" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="B139" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="B25" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="B23" r:id="rId118" xr:uid="{0E7116C2-B939-460A-BFAE-BA70CE77FD37}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B14" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B15" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B18" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B19" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B21" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B23" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B25" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B26" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B27" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B28" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B29" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B30" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B31" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B34" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B35" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B36" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B37" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B38" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B39" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B40" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B41" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B42" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B43" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B44" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B45" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B46" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B47" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B49" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B50" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B52" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B53" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B54" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B55" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B57" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B58" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B62" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B64" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="B65" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B66" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B67" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B68" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B69" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B71" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B73" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B74" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="B75" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B76" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="B77" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="B78" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="B79" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="B80" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="B81" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="B82" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="B83" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="B84" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="B85" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="B86" r:id="rId67" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="B87" r:id="rId68" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="B88" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="B89" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="B90" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="B92" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="B93" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="B94" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="B95" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="B96" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="B97" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="B98" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="B99" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="B101" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="B102" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="B103" r:id="rId82" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="B104" r:id="rId83" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="B105" r:id="rId84" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="B106" r:id="rId85" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="B107" r:id="rId86" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="B108" r:id="rId87" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="B109" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="B110" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="B111" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="B112" r:id="rId91" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="B113" r:id="rId92" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="B114" r:id="rId93" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="B115" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="B116" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="B117" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="B118" r:id="rId97" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="B119" r:id="rId98" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="B120" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="B121" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="B122" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="B123" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="B124" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="B125" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="B126" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="B127" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="B128" r:id="rId107" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="B129" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="B130" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="B131" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="B132" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="B133" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="B134" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="B135" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="B136" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="B137" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="B24" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B22" r:id="rId118" xr:uid="{0E7116C2-B939-460A-BFAE-BA70CE77FD37}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId119"/>
